--- a/Scripts/1-1_Excel.xlsx
+++ b/Scripts/1-1_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USSER\Desktop\UE5_Project\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82C6475-BBBA-4D67-B293-51FBBFD1BD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD16472-7A80-4350-9255-78481A8105EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>카엘리스</t>
   </si>
@@ -57,119 +57,6 @@
     <t>탈출 경로인 통로 구석, 미세하게 빛나는 물체가 눈에 띄었다.</t>
   </si>
   <si>
-    <t>(컷씬 연출)</t>
-  </si>
-  <si>
-    <r>
-      <t>(1-1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>장</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상황컷씬</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일러스트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이터다운로드.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PNG)</t>
-    </r>
-  </si>
-  <si>
     <t>...사람의 형체인가. 이미 부패와 변형이 진행되고 있군. 시간망령이 되기 직전이다.</t>
   </si>
   <si>
@@ -611,95 +498,6 @@
   </si>
   <si>
     <t>재생이 종료되었습니다.</t>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배경은</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검은</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면으로</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전환</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>에이드린의 망설임은... 내 복장이 이 자를 떠올리게 했기 때문인가.</t>
@@ -949,7 +747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,21 +767,6 @@
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1026,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1037,13 +820,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1326,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1372,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -1392,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1410,47 +1187,45 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1460,15 +1235,17 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1479,7 +1256,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
@@ -1488,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1508,27 +1285,27 @@
         <v>7</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1539,30 +1316,30 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -1582,13 +1359,13 @@
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1599,16 +1376,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1619,10 +1396,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1">
         <v>13</v>
@@ -1639,10 +1416,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1">
         <v>14</v>
@@ -1659,16 +1436,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1">
         <v>15</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1679,16 +1456,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1">
         <v>16</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1699,10 +1476,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1">
         <v>17</v>
@@ -1722,13 +1499,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1">
         <v>18</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1739,16 +1516,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1">
         <v>19</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1759,16 +1536,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1">
         <v>20</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1779,10 +1556,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1">
         <v>21</v>
@@ -1799,16 +1576,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1">
         <v>22</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1819,10 +1596,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1">
         <v>23</v>
@@ -1842,7 +1619,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1">
         <v>24</v>
@@ -1859,16 +1636,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1">
         <v>25</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1879,16 +1656,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1">
         <v>26</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1899,16 +1676,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="1">
         <v>27</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1919,10 +1696,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1">
         <v>28</v>
@@ -1939,16 +1716,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1">
         <v>29</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -1959,16 +1736,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1">
         <v>30</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -1979,10 +1756,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1">
         <v>31</v>
@@ -1999,36 +1776,36 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1">
         <v>32</v>
       </c>
       <c r="E34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>42</v>
+      <c r="B35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D35" s="1">
         <v>33</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -2038,11 +1815,9 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="1">
         <v>34</v>
@@ -2054,61 +1829,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>44</v>
+      <c r="C37" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D37" s="1">
         <v>35</v>
       </c>
       <c r="E37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="1">
-        <v>36</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="1">
-        <v>37</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Scripts/1-1_Excel.xlsx
+++ b/Scripts/1-1_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USSER\Desktop\UE5_Project\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD16472-7A80-4350-9255-78481A8105EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0720FD-C340-4FD5-B0BB-34B8FEDDFF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,18 +51,9 @@
     <t>에이드린이 쓰러지자, 데이터 수집이 완료되며 복귀 포탈이 열렸다.</t>
   </si>
   <si>
-    <t>강적이었다. ...하지만 마지막 일격 직전에 분명 멈칫했어. 어째서지?</t>
-  </si>
-  <si>
     <t>탈출 경로인 통로 구석, 미세하게 빛나는 물체가 눈에 띄었다.</t>
   </si>
   <si>
-    <t>...사람의 형체인가. 이미 부패와 변형이 진행되고 있군. 시간망령이 되기 직전이다.</t>
-  </si>
-  <si>
-    <t>카엘리스는 시신의 복장이 자신과 같은 '요원'의 것임을 알아보고, 바닥에 떨어진 단말기를 집어 들었다.</t>
-  </si>
-  <si>
     <t>기록 장치는 멀쩡하다. 데이터를 확인한다.</t>
   </si>
   <si>
@@ -75,679 +66,104 @@
     <t>요원 알파</t>
   </si>
   <si>
-    <t>(치지직...) 파견 14시간 차. 장비 파손으로 복귀 불가. 기피 대상 '에이드린'과 조우했다.</t>
-  </si>
-  <si>
-    <r>
-      <t>본부의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보대로라면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그녀는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>냉혹한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>마검사여야</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>하지만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>적의가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>없음을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>보이자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그녀는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>머물 곳을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제공해주었다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>경계심은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>서려</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>있지만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>살의는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>없다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>당분간은 이곳에 머무르면서 장비를 수리하겠다.</t>
-    </r>
-  </si>
-  <si>
     <t>다음 로그를 재생합니다.</t>
   </si>
   <si>
-    <t>(치지직...) 파견 20일 차. 그녀에 대한 관찰 기록이다.</t>
-  </si>
-  <si>
-    <t>낮의 그녀는 신전을 지키는 고결한 수호자다. 강철 같은 의지로 무장하여 한 치의 흔들림도 없다.</t>
-  </si>
-  <si>
-    <t>하지만 밤이 깊어지면... 그녀는 죽은 연인의 무덤 앞에서 무너져 내린다. 소리 없는 오열이 신전을 채운다.</t>
-  </si>
-  <si>
-    <t>그녀는 이미 한계다. 금방이라도 부서질 듯한 위태로움. 그런데도 아침이면 아무 일도 없다는 듯 다시 검을 쥐고 있다.</t>
-  </si>
-  <si>
-    <t>그녀에게 죽은 연인은 어떤 존재였길래... 저토록 처절하게 버티는 걸까?</t>
-  </si>
-  <si>
     <t>연민인가. 요원에게는 불필요한 감정이다.</t>
   </si>
   <si>
-    <t>...파견 45일 차. 장비 수리는 끝났다. 복귀 버튼만 누르면 된다. 하지만... 나는 남기로 했다.</t>
-  </si>
-  <si>
-    <t>어제 처음으로 그녀가 내게 자신의 이야기를 들려줬다. 춥고 긴 밤이었지만, 그녀의 목소리를 듣느라 추위를 잊었다.</t>
-  </si>
-  <si>
-    <t>죽은 자만을 바라보는 여자를 사랑하다니, 멍청한 계산이지. 내 자리가 없다는 건 누구보다 잘 안다.</t>
-  </si>
-  <si>
-    <t>하지만 그녀가 또다시 혼자 그 긴 밤을 견디게 두고 싶지 않다. 나는... 부품을 부셨다. 이걸로 돌아갈 곳은 없다.</t>
-  </si>
-  <si>
-    <t>그녀의 고독을 덜어주기 위해 자신의 삶을 걸었군. 자신의 의무를 져버리면서까지... 비합리적인 판단이다.</t>
-  </si>
-  <si>
     <t>마지막 로그를 재생합니다.</t>
   </si>
   <si>
-    <t>(치지직... 거친 숨소리) ...파견 60일 차. 제국의 놈들이 들이닥쳤다.</t>
-  </si>
-  <si>
-    <t>고작 국경의 영토를 넓히겠다고, 그녀를 암살하려 하다니. 젠장... 그녀는 더 이상 그딴 권력놀음에 관심 없다고!</t>
-  </si>
-  <si>
     <t>놈들은 다 죽였지만... 내 상태도 엉망이다. 가망이 없어.</t>
   </si>
   <si>
-    <t>얼마 전에 내게 같이 있어준 것에 감사를 표했다. 내게... 믿을만한 '친구'라면서 말이다... 하하...</t>
-  </si>
-  <si>
     <t>그래서, 죽어가는 모습을 에이드린에게 보일 순 없다... 그녀가 상처를 받을 게 눈에 훤히 보이기 때문이다...</t>
   </si>
   <si>
     <t>그냥... 지루해져서 떠난다는 거짓 쪽지를 남겼다.</t>
   </si>
   <si>
-    <t>...에이드린. 부디 나를 나쁜 놈으로 기억하고, 당신은 살아라. ...이상.</t>
-  </si>
-  <si>
     <t>재생이 종료되었습니다.</t>
   </si>
   <si>
     <t>에이드린의 망설임은... 내 복장이 이 자를 떠올리게 했기 때문인가.</t>
   </si>
   <si>
-    <t>이 자는 대가 없는 사랑을 위해 목숨을 버렸고, 다른 인간들은 고작 땅덩어리를 얻겠다고 그 사랑을 짓밟았군.</t>
-  </si>
-  <si>
-    <t>숭고한 희생과 추악한 탐욕. 상반된 두 가지가 인간이라는 이름 아래 뒤섞여 있었다.</t>
-  </si>
-  <si>
-    <r>
-      <t>비극을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>만드는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>것도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>속에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>빛나는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>것도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인간인가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. ...</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>입안이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>쓰군</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>복귀한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>강적이었다. ...하지만 마지막 일격 직전에 분명 멈칫했어.\n어째서지?</t>
+  </si>
+  <si>
+    <t>...사람의 형체인가. 이미 부패와 변형이 진행되고 있군.\n시간망령이 되기 직전이다.</t>
+  </si>
+  <si>
+    <t>카엘리스는 시신의 복장이 자신과 같은 '요원'의 것임을 알아보고,\n바닥에 떨어진 단말기를 집어 들었다.</t>
+  </si>
+  <si>
+    <t>치지직... 파견 14시간 차.\n장비 파손으로 복귀 불가.\n기피 대상 '에이드린'과 조우했다.</t>
+  </si>
+  <si>
+    <t>본부의 정보대로라면 그녀는 냉혹한 마검사여야 한다.\n하지만 적의가 없음을 보이자, 그녀는 머물 곳을 제공해주었다.</t>
+  </si>
+  <si>
+    <t>경계심은 서려 있지만 살의는 없다.\n당분간은 이곳에 머무르면서 장비를 수리하겠다.</t>
+  </si>
+  <si>
+    <t>치지직... 파견 20일 차.\n그녀에 대한 관찰 기록이다.</t>
+  </si>
+  <si>
+    <t>낮의 그녀는 신전을 지키는 고결한 수호자다.\n강철 같은 의지로 무장하여 한 치의 흔들림도 없다.</t>
+  </si>
+  <si>
+    <t>하지만 밤이 깊어지면... 그녀는 죽은 연인의 무덤 앞에서 무너져 내린다.\n소리 없는 오열이 신전을 채운다.</t>
+  </si>
+  <si>
+    <t>그녀는 이미 한계다. 금방이라도 부서질 듯한 위태로움...\n그런데도 아침이면 아무 일도 없다는 듯 다시 검을 쥐고 있다.</t>
+  </si>
+  <si>
+    <t>그녀에게 죽은 연인은 어떤 존재였길래…\n저토록 처절하게 버티는 걸까?</t>
+  </si>
+  <si>
+    <t>...파견 45일 차.\n장비 수리는 끝났다. 복귀 버튼만 누르면 된다.\n하지만... 나는 남기로 했다.</t>
+  </si>
+  <si>
+    <t>어제 처음으로 그녀가 내게 자신의 이야기를 들려줬다.\n춥고 긴 밤이었지만, 그녀의 목소리를 듣느라 추위를 잊었다.</t>
+  </si>
+  <si>
+    <t>죽은 자만을 바라보는 여자를 사랑하다니, 멍청한 계산이지.\n내 자리가 없다는 건 누구보다 잘 안다.</t>
+  </si>
+  <si>
+    <t>하지만 그녀가 또다시 혼자 그 긴 밤을 견디게 두고 싶지 않다.\n나는... 부품을 부셨다. 이걸로 돌아갈 곳은 없다.</t>
+  </si>
+  <si>
+    <t>그녀의 고독을 덜어주기 위해 자신의 삶을 걸었군.\n자신의 의무를 져버리면서까지... 비합리적인 판단이다.</t>
+  </si>
+  <si>
+    <t>치지직... 허억허억 ...파견 60일 차.\n제국의 놈들이 들이닥쳤다.</t>
+  </si>
+  <si>
+    <t>고작 국경의 영토를 넓히겠다고, 그녀를 암살하려 하다니...\n젠장... 그녀는 더 이상 그딴 권력놀음에 관심 없다고!</t>
+  </si>
+  <si>
+    <t>얼마 전에 내게 같이 있어준 것에 감사를 표했다.\n내게... 믿을만한 '친구'라면서 말이다... 하하...</t>
+  </si>
+  <si>
+    <t>...에이드린. 부디 나를 나쁜 놈으로 기억하고, 당신은 살아라…</t>
+  </si>
+  <si>
+    <t>이 자는 대가 없는 사랑을 위해 목숨을 버렸고,\n다른 인간들은 고작 땅덩어리를 얻겠다고 그 사랑을 짓밟았군.</t>
+  </si>
+  <si>
+    <t>숭고한 희생과 추악한 탐욕.\n상반된 두 가지가 인간이라는 이름 아래 뒤섞여 있었다.</t>
+  </si>
+  <si>
+    <t>비극을 만드는 것도 인간, 그 속에서 빛나는 것도 인간인가.\n...입안이 쓰군. 복귀한다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,39 +178,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -809,19 +199,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,7 +487,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1137,12 +518,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1">
@@ -1155,15 +535,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1175,13 +555,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -1193,15 +572,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -1213,13 +592,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -1231,15 +609,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -1251,15 +629,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -1271,15 +649,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
@@ -1295,11 +673,11 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -1315,11 +693,11 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
@@ -1331,15 +709,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -1351,15 +729,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
@@ -1371,15 +749,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
@@ -1391,15 +769,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="1">
         <v>13</v>
@@ -1411,15 +789,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>14</v>
@@ -1431,15 +809,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>24</v>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D17" s="1">
         <v>15</v>
@@ -1451,15 +829,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D18" s="1">
         <v>16</v>
@@ -1471,15 +849,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D19" s="1">
         <v>17</v>
@@ -1491,15 +869,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>26</v>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D20" s="1">
         <v>18</v>
@@ -1511,15 +889,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>27</v>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="1">
         <v>19</v>
@@ -1531,15 +909,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D22" s="1">
         <v>20</v>
@@ -1551,15 +929,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D23" s="1">
         <v>21</v>
@@ -1571,15 +949,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D24" s="1">
         <v>22</v>
@@ -1591,15 +969,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D25" s="1">
         <v>23</v>
@@ -1611,15 +989,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>32</v>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D26" s="1">
         <v>24</v>
@@ -1631,15 +1009,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>33</v>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="1">
         <v>25</v>
@@ -1651,15 +1029,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>34</v>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D28" s="1">
         <v>26</v>
@@ -1671,15 +1049,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>35</v>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D29" s="1">
         <v>27</v>
@@ -1691,15 +1069,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>36</v>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D30" s="1">
         <v>28</v>
@@ -1711,15 +1089,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>37</v>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D31" s="1">
         <v>29</v>
@@ -1731,15 +1109,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>38</v>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D32" s="1">
         <v>30</v>
@@ -1751,15 +1129,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>39</v>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D33" s="1">
         <v>31</v>
@@ -1771,15 +1149,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>40</v>
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D34" s="1">
         <v>32</v>
@@ -1791,14 +1169,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="1">
@@ -1811,12 +1189,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="1">
@@ -1833,10 +1210,10 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="1">
